--- a/maddenData/2014/roster_update_4_week_4.xlsx
+++ b/maddenData/2014/roster_update_4_week_4.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15820" windowHeight="11180"/>
   </bookViews>
   <sheets>
     <sheet name="Madden 15 - Roster Upddate #4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -3330,9 +3333,6 @@
     <t xml:space="preserve"> AWR: 87 (-2);  CTH: 93 (-1)</t>
   </si>
   <si>
-    <t>Earl	 Thomas III (29)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> AWR: 85 (+1);  TRK: 40 (+5);  PRC: 82 (+1);  ZCV: 95 (+1)</t>
   </si>
   <si>
@@ -4567,6 +4567,9 @@
   </si>
   <si>
     <t>Giants (New)</t>
+  </si>
+  <si>
+    <t>Earl	 Thomas (29)</t>
   </si>
 </sst>
 </file>
@@ -4683,7 +4686,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4718,7 +4721,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4895,7 +4898,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4905,20 +4908,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G677"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
+      <selection activeCell="A580" sqref="A580"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="157.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="157.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4941,12 +4946,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B2" t="s">
         <v>1459</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1460</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -4961,9 +4966,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -4981,12 +4986,12 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -5004,12 +5009,12 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B5" t="s">
         <v>79</v>
@@ -5018,7 +5023,7 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E5">
         <v>75</v>
@@ -5027,10 +5032,10 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>398</v>
       </c>
@@ -5050,10 +5055,10 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>1044</v>
       </c>
@@ -5076,9 +5081,9 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -5096,12 +5101,12 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
@@ -5119,12 +5124,12 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
@@ -5142,10 +5147,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>257</v>
       </c>
@@ -5165,12 +5170,12 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
@@ -5179,7 +5184,7 @@
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E12">
         <v>64</v>
@@ -5188,9 +5193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B13" t="s">
         <v>79</v>
@@ -5199,7 +5204,7 @@
         <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E13">
         <v>71</v>
@@ -5208,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>1033</v>
       </c>
@@ -5231,7 +5236,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>454</v>
       </c>
@@ -5251,10 +5256,10 @@
         <v>-1</v>
       </c>
       <c r="G15" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>451</v>
       </c>
@@ -5274,12 +5279,12 @@
         <v>-1</v>
       </c>
       <c r="G16" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B17" t="s">
         <v>79</v>
@@ -5297,10 +5302,10 @@
         <v>-1</v>
       </c>
       <c r="G17" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>388</v>
       </c>
@@ -5320,12 +5325,12 @@
         <v>-1</v>
       </c>
       <c r="G18" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B19" t="s">
         <v>79</v>
@@ -5343,10 +5348,10 @@
         <v>-1</v>
       </c>
       <c r="G19" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>251</v>
       </c>
@@ -5369,9 +5374,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
@@ -5389,10 +5394,10 @@
         <v>-1</v>
       </c>
       <c r="G21" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>327</v>
       </c>
@@ -5412,10 +5417,10 @@
         <v>-1</v>
       </c>
       <c r="G22" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>1009</v>
       </c>
@@ -5438,7 +5443,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>422</v>
       </c>
@@ -5458,12 +5463,12 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -5481,10 +5486,10 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>1039</v>
       </c>
@@ -5507,9 +5512,9 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -5527,10 +5532,10 @@
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>1067</v>
       </c>
@@ -5553,7 +5558,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -5573,10 +5578,10 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -5596,10 +5601,10 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>399</v>
       </c>
@@ -5619,12 +5624,12 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
@@ -5642,10 +5647,10 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>329</v>
       </c>
@@ -5668,7 +5673,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -5691,7 +5696,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -5711,10 +5716,10 @@
         <v>-1</v>
       </c>
       <c r="G35" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -5734,12 +5739,12 @@
         <v>-1</v>
       </c>
       <c r="G36" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
@@ -5757,12 +5762,12 @@
         <v>-1</v>
       </c>
       <c r="G37" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
@@ -5780,10 +5785,10 @@
         <v>-1</v>
       </c>
       <c r="G38" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>424</v>
       </c>
@@ -5803,10 +5808,10 @@
         <v>-2</v>
       </c>
       <c r="G39" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>1027</v>
       </c>
@@ -5826,9 +5831,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B41" t="s">
         <v>1028</v>
@@ -5837,7 +5842,7 @@
         <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E41">
         <v>46</v>
@@ -5846,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>265</v>
       </c>
@@ -5869,7 +5874,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>597</v>
       </c>
@@ -5892,7 +5897,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>216</v>
       </c>
@@ -5915,7 +5920,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>485</v>
       </c>
@@ -5938,7 +5943,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>178</v>
       </c>
@@ -5961,7 +5966,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>571</v>
       </c>
@@ -5984,7 +5989,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>679</v>
       </c>
@@ -6007,7 +6012,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>392</v>
       </c>
@@ -6030,7 +6035,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>407</v>
       </c>
@@ -6053,7 +6058,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>565</v>
       </c>
@@ -6076,7 +6081,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>334</v>
       </c>
@@ -6099,7 +6104,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>718</v>
       </c>
@@ -6122,7 +6127,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>877</v>
       </c>
@@ -6145,7 +6150,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>1023</v>
       </c>
@@ -6168,7 +6173,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>375</v>
       </c>
@@ -6191,7 +6196,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -6214,7 +6219,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>620</v>
       </c>
@@ -6237,7 +6242,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>206</v>
       </c>
@@ -6260,7 +6265,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>602</v>
       </c>
@@ -6283,7 +6288,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>604</v>
       </c>
@@ -6306,7 +6311,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>378</v>
       </c>
@@ -6329,7 +6334,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>126</v>
       </c>
@@ -6352,7 +6357,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>443</v>
       </c>
@@ -6375,7 +6380,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>780</v>
       </c>
@@ -6398,7 +6403,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>425</v>
       </c>
@@ -6421,9 +6426,9 @@
         <v>965</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
@@ -6432,7 +6437,7 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E67">
         <v>65</v>
@@ -6441,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>521</v>
       </c>
@@ -6464,7 +6469,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>376</v>
       </c>
@@ -6487,7 +6492,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>256</v>
       </c>
@@ -6510,7 +6515,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>879</v>
       </c>
@@ -6533,7 +6538,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>278</v>
       </c>
@@ -6556,7 +6561,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>396</v>
       </c>
@@ -6579,7 +6584,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>847</v>
       </c>
@@ -6602,9 +6607,9 @@
         <v>848</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B75" t="s">
         <v>25</v>
@@ -6622,12 +6627,12 @@
         <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B76" t="s">
         <v>25</v>
@@ -6645,12 +6650,12 @@
         <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B77" t="s">
         <v>25</v>
@@ -6668,10 +6673,10 @@
         <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>352</v>
       </c>
@@ -6694,7 +6699,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>217</v>
       </c>
@@ -6714,12 +6719,12 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
@@ -6737,10 +6742,10 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>343</v>
       </c>
@@ -6763,7 +6768,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>345</v>
       </c>
@@ -6786,7 +6791,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>1072</v>
       </c>
@@ -6809,7 +6814,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -6832,7 +6837,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>210</v>
       </c>
@@ -6855,9 +6860,9 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
@@ -6875,12 +6880,12 @@
         <v>-1</v>
       </c>
       <c r="G86" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B87" t="s">
         <v>25</v>
@@ -6898,12 +6903,12 @@
         <v>-1</v>
       </c>
       <c r="G87" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B88" t="s">
         <v>25</v>
@@ -6921,12 +6926,12 @@
         <v>-1</v>
       </c>
       <c r="G88" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B89" t="s">
         <v>25</v>
@@ -6944,10 +6949,10 @@
         <v>-1</v>
       </c>
       <c r="G89" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>169</v>
       </c>
@@ -6967,12 +6972,12 @@
         <v>-1</v>
       </c>
       <c r="G90" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B91" t="s">
         <v>25</v>
@@ -6990,12 +6995,12 @@
         <v>-1</v>
       </c>
       <c r="G91" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
@@ -7013,10 +7018,10 @@
         <v>-2</v>
       </c>
       <c r="G92" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>137</v>
       </c>
@@ -7039,7 +7044,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>418</v>
       </c>
@@ -7062,7 +7067,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>129</v>
       </c>
@@ -7085,7 +7090,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>586</v>
       </c>
@@ -7108,7 +7113,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>355</v>
       </c>
@@ -7131,7 +7136,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>701</v>
       </c>
@@ -7154,7 +7159,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>729</v>
       </c>
@@ -7177,7 +7182,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>326</v>
       </c>
@@ -7200,7 +7205,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>499</v>
       </c>
@@ -7223,7 +7228,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>541</v>
       </c>
@@ -7246,7 +7251,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>563</v>
       </c>
@@ -7269,7 +7274,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>567</v>
       </c>
@@ -7292,7 +7297,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>157</v>
       </c>
@@ -7315,7 +7320,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>354</v>
       </c>
@@ -7338,7 +7343,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>207</v>
       </c>
@@ -7361,7 +7366,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>778</v>
       </c>
@@ -7384,7 +7389,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>267</v>
       </c>
@@ -7407,7 +7412,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>367</v>
       </c>
@@ -7430,18 +7435,18 @@
         <v>660</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B111" t="s">
         <v>1415</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1416</v>
       </c>
       <c r="C111" t="s">
         <v>103</v>
       </c>
       <c r="D111" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E111">
         <v>63</v>
@@ -7450,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>449</v>
       </c>
@@ -7473,7 +7478,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>727</v>
       </c>
@@ -7496,7 +7501,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>363</v>
       </c>
@@ -7516,9 +7521,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B115" t="s">
         <v>36</v>
@@ -7536,9 +7541,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B116" t="s">
         <v>36</v>
@@ -7556,9 +7561,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B117" t="s">
         <v>36</v>
@@ -7567,7 +7572,7 @@
         <v>22</v>
       </c>
       <c r="D117" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E117">
         <v>66</v>
@@ -7576,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>304</v>
       </c>
@@ -7596,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>195</v>
       </c>
@@ -7619,7 +7624,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>663</v>
       </c>
@@ -7642,7 +7647,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>218</v>
       </c>
@@ -7665,7 +7670,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>412</v>
       </c>
@@ -7688,7 +7693,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>404</v>
       </c>
@@ -7711,7 +7716,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>259</v>
       </c>
@@ -7734,7 +7739,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>941</v>
       </c>
@@ -7757,7 +7762,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>410</v>
       </c>
@@ -7780,7 +7785,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>416</v>
       </c>
@@ -7803,18 +7808,18 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B128" t="s">
         <v>36</v>
       </c>
       <c r="C128" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D128" t="s">
         <v>1391</v>
-      </c>
-      <c r="D128" t="s">
-        <v>1392</v>
       </c>
       <c r="E128">
         <v>74</v>
@@ -7823,7 +7828,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>558</v>
       </c>
@@ -7846,7 +7851,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>365</v>
       </c>
@@ -7869,7 +7874,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>236</v>
       </c>
@@ -7892,7 +7897,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>69</v>
       </c>
@@ -7915,7 +7920,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>194</v>
       </c>
@@ -7938,12 +7943,12 @@
         <v>623</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B134" t="s">
         <v>1474</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1475</v>
       </c>
       <c r="C134" t="s">
         <v>11</v>
@@ -7958,9 +7963,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B135" t="s">
         <v>48</v>
@@ -7978,12 +7983,12 @@
         <v>3</v>
       </c>
       <c r="G135" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B136" t="s">
         <v>48</v>
@@ -8001,12 +8006,12 @@
         <v>2</v>
       </c>
       <c r="G136" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B137" t="s">
         <v>48</v>
@@ -8024,12 +8029,12 @@
         <v>2</v>
       </c>
       <c r="G137" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B138" t="s">
         <v>48</v>
@@ -8047,10 +8052,10 @@
         <v>2</v>
       </c>
       <c r="G138" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>114</v>
       </c>
@@ -8070,12 +8075,12 @@
         <v>2</v>
       </c>
       <c r="G139" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B140" t="s">
         <v>48</v>
@@ -8093,10 +8098,10 @@
         <v>2</v>
       </c>
       <c r="G140" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>339</v>
       </c>
@@ -8119,7 +8124,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>361</v>
       </c>
@@ -8142,9 +8147,9 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B143" t="s">
         <v>48</v>
@@ -8162,12 +8167,12 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B144" t="s">
         <v>48</v>
@@ -8185,9 +8190,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B145" t="s">
         <v>48</v>
@@ -8196,7 +8201,7 @@
         <v>108</v>
       </c>
       <c r="D145" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E145">
         <v>84</v>
@@ -8205,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>298</v>
       </c>
@@ -8225,7 +8230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>282</v>
       </c>
@@ -8245,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>458</v>
       </c>
@@ -8256,7 +8261,7 @@
         <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E148">
         <v>76</v>
@@ -8265,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>283</v>
       </c>
@@ -8285,9 +8290,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B150" t="s">
         <v>48</v>
@@ -8305,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>281</v>
       </c>
@@ -8328,7 +8333,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>337</v>
       </c>
@@ -8351,7 +8356,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>174</v>
       </c>
@@ -8374,9 +8379,9 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B154" t="s">
         <v>48</v>
@@ -8394,12 +8399,12 @@
         <v>-1</v>
       </c>
       <c r="G154" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B155" t="s">
         <v>48</v>
@@ -8417,10 +8422,10 @@
         <v>-1</v>
       </c>
       <c r="G155" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>301</v>
       </c>
@@ -8440,10 +8445,10 @@
         <v>-1</v>
       </c>
       <c r="G156" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>288</v>
       </c>
@@ -8463,10 +8468,10 @@
         <v>-2</v>
       </c>
       <c r="G157" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>130</v>
       </c>
@@ -8486,12 +8491,12 @@
         <v>-2</v>
       </c>
       <c r="G158" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B159" t="s">
         <v>292</v>
@@ -8509,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>934</v>
       </c>
@@ -8532,7 +8537,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>634</v>
       </c>
@@ -8555,7 +8560,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>287</v>
       </c>
@@ -8578,7 +8583,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>285</v>
       </c>
@@ -8601,7 +8606,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>636</v>
       </c>
@@ -8624,7 +8629,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>638</v>
       </c>
@@ -8647,7 +8652,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>740</v>
       </c>
@@ -8670,7 +8675,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>770</v>
       </c>
@@ -8693,7 +8698,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>794</v>
       </c>
@@ -8716,7 +8721,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>863</v>
       </c>
@@ -8739,7 +8744,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>462</v>
       </c>
@@ -8762,7 +8767,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -8785,7 +8790,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>296</v>
       </c>
@@ -8805,9 +8810,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B173" t="s">
         <v>49</v>
@@ -8816,7 +8821,7 @@
         <v>26</v>
       </c>
       <c r="D173" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E173">
         <v>70</v>
@@ -8825,9 +8830,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B174" t="s">
         <v>49</v>
@@ -8845,9 +8850,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B175" t="s">
         <v>49</v>
@@ -8856,7 +8861,7 @@
         <v>26</v>
       </c>
       <c r="D175" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E175">
         <v>69</v>
@@ -8865,9 +8870,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B176" t="s">
         <v>49</v>
@@ -8885,9 +8890,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B177" t="s">
         <v>49</v>
@@ -8896,7 +8901,7 @@
         <v>94</v>
       </c>
       <c r="D177" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E177">
         <v>71</v>
@@ -8905,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>490</v>
       </c>
@@ -8928,7 +8933,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>575</v>
       </c>
@@ -8951,7 +8956,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>379</v>
       </c>
@@ -8974,7 +8979,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>299</v>
       </c>
@@ -8997,7 +9002,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>297</v>
       </c>
@@ -9020,12 +9025,12 @@
         <v>826</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B183" t="s">
         <v>1402</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1403</v>
       </c>
       <c r="C183" t="s">
         <v>94</v>
@@ -9040,9 +9045,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B184" t="s">
         <v>117</v>
@@ -9060,9 +9065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B185" t="s">
         <v>117</v>
@@ -9080,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>138</v>
       </c>
@@ -9103,7 +9108,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>225</v>
       </c>
@@ -9123,10 +9128,10 @@
         <v>2</v>
       </c>
       <c r="G187" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>303</v>
       </c>
@@ -9146,10 +9151,10 @@
         <v>2</v>
       </c>
       <c r="G188" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>305</v>
       </c>
@@ -9169,12 +9174,12 @@
         <v>2</v>
       </c>
       <c r="G189" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B190" t="s">
         <v>52</v>
@@ -9192,12 +9197,12 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
         <v>1268</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>1269</v>
       </c>
       <c r="B191" t="s">
         <v>52</v>
@@ -9215,12 +9220,12 @@
         <v>2</v>
       </c>
       <c r="G191" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B192" t="s">
         <v>52</v>
@@ -9238,10 +9243,10 @@
         <v>2</v>
       </c>
       <c r="G192" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>349</v>
       </c>
@@ -9264,7 +9269,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>180</v>
       </c>
@@ -9287,7 +9292,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>353</v>
       </c>
@@ -9310,9 +9315,9 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B196" t="s">
         <v>52</v>
@@ -9330,10 +9335,10 @@
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>401</v>
       </c>
@@ -9353,10 +9358,10 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>300</v>
       </c>
@@ -9376,12 +9381,12 @@
         <v>1</v>
       </c>
       <c r="G198" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B199" t="s">
         <v>52</v>
@@ -9399,12 +9404,12 @@
         <v>1</v>
       </c>
       <c r="G199" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B200" t="s">
         <v>52</v>
@@ -9422,12 +9427,12 @@
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B201" t="s">
         <v>52</v>
@@ -9445,10 +9450,10 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>147</v>
       </c>
@@ -9468,12 +9473,12 @@
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B203" t="s">
         <v>52</v>
@@ -9491,9 +9496,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B204" t="s">
         <v>52</v>
@@ -9511,10 +9516,10 @@
         <v>-1</v>
       </c>
       <c r="G204" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>87</v>
       </c>
@@ -9534,12 +9539,12 @@
         <v>-2</v>
       </c>
       <c r="G205" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B206" t="s">
         <v>291</v>
@@ -9557,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>588</v>
       </c>
@@ -9580,7 +9585,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>212</v>
       </c>
@@ -9603,7 +9608,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>442</v>
       </c>
@@ -9626,7 +9631,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>464</v>
       </c>
@@ -9649,7 +9654,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>436</v>
       </c>
@@ -9672,7 +9677,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>512</v>
       </c>
@@ -9695,7 +9700,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>548</v>
       </c>
@@ -9718,7 +9723,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>550</v>
       </c>
@@ -9741,7 +9746,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>441</v>
       </c>
@@ -9764,7 +9769,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>734</v>
       </c>
@@ -9787,7 +9792,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>768</v>
       </c>
@@ -9810,7 +9815,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>856</v>
       </c>
@@ -9833,7 +9838,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>939</v>
       </c>
@@ -9856,7 +9861,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>990</v>
       </c>
@@ -9879,7 +9884,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>1096</v>
       </c>
@@ -9899,9 +9904,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B222" t="s">
         <v>54</v>
@@ -9919,12 +9924,12 @@
         <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B223" t="s">
         <v>54</v>
@@ -9942,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>687</v>
       </c>
@@ -9965,7 +9970,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>444</v>
       </c>
@@ -9988,7 +9993,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>447</v>
       </c>
@@ -10011,7 +10016,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
         <v>1052</v>
       </c>
@@ -10031,12 +10036,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B228" t="s">
         <v>1371</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1372</v>
       </c>
       <c r="C228" t="s">
         <v>93</v>
@@ -10051,7 +10056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>201</v>
       </c>
@@ -10074,7 +10079,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>250</v>
       </c>
@@ -10094,12 +10099,12 @@
         <v>2</v>
       </c>
       <c r="G230" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B231" t="s">
         <v>23</v>
@@ -10108,7 +10113,7 @@
         <v>22</v>
       </c>
       <c r="D231" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E231">
         <v>72</v>
@@ -10117,10 +10122,10 @@
         <v>2</v>
       </c>
       <c r="G231" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>1035</v>
       </c>
@@ -10143,7 +10148,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
         <v>1075</v>
       </c>
@@ -10166,7 +10171,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>1081</v>
       </c>
@@ -10189,7 +10194,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>197</v>
       </c>
@@ -10209,10 +10214,10 @@
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>322</v>
       </c>
@@ -10232,10 +10237,10 @@
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>92</v>
       </c>
@@ -10255,10 +10260,10 @@
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>27</v>
       </c>
@@ -10281,9 +10286,9 @@
         <v>816</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B239" t="s">
         <v>23</v>
@@ -10301,12 +10306,12 @@
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B240" t="s">
         <v>23</v>
@@ -10324,12 +10329,12 @@
         <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B241" t="s">
         <v>23</v>
@@ -10347,10 +10352,10 @@
         <v>0</v>
       </c>
       <c r="G241" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>323</v>
       </c>
@@ -10370,9 +10375,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B243" t="s">
         <v>23</v>
@@ -10381,7 +10386,7 @@
         <v>16</v>
       </c>
       <c r="D243" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E243">
         <v>66</v>
@@ -10390,9 +10395,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B244" t="s">
         <v>23</v>
@@ -10401,7 +10406,7 @@
         <v>51</v>
       </c>
       <c r="D244" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E244">
         <v>68</v>
@@ -10410,7 +10415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>1050</v>
       </c>
@@ -10433,7 +10438,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>1084</v>
       </c>
@@ -10456,9 +10461,9 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B247" t="s">
         <v>23</v>
@@ -10476,12 +10481,12 @@
         <v>-1</v>
       </c>
       <c r="G247" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B248" t="s">
         <v>23</v>
@@ -10499,10 +10504,10 @@
         <v>-1</v>
       </c>
       <c r="G248" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>405</v>
       </c>
@@ -10522,21 +10527,21 @@
         <v>-1</v>
       </c>
       <c r="G249" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B250" t="s">
         <v>1191</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1192</v>
       </c>
       <c r="C250" t="s">
         <v>773</v>
       </c>
       <c r="D250" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E250">
         <v>66</v>
@@ -10545,7 +10550,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>280</v>
       </c>
@@ -10565,10 +10570,10 @@
         <v>3</v>
       </c>
       <c r="G251" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -10588,10 +10593,10 @@
         <v>1</v>
       </c>
       <c r="G252" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>325</v>
       </c>
@@ -10611,10 +10616,10 @@
         <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>1094</v>
       </c>
@@ -10637,9 +10642,9 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B255" t="s">
         <v>56</v>
@@ -10657,10 +10662,10 @@
         <v>0</v>
       </c>
       <c r="G255" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>346</v>
       </c>
@@ -10683,7 +10688,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>190</v>
       </c>
@@ -10706,7 +10711,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>196</v>
       </c>
@@ -10726,12 +10731,12 @@
         <v>-1</v>
       </c>
       <c r="G258" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B259" t="s">
         <v>56</v>
@@ -10749,10 +10754,10 @@
         <v>-1</v>
       </c>
       <c r="G259" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" t="s">
         <v>370</v>
       </c>
@@ -10772,10 +10777,10 @@
         <v>-1</v>
       </c>
       <c r="G260" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>238</v>
       </c>
@@ -10795,10 +10800,10 @@
         <v>-1</v>
       </c>
       <c r="G261" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>313</v>
       </c>
@@ -10818,10 +10823,10 @@
         <v>-1</v>
       </c>
       <c r="G262" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -10841,10 +10846,10 @@
         <v>-1</v>
       </c>
       <c r="G263" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>311</v>
       </c>
@@ -10864,12 +10869,12 @@
         <v>-2</v>
       </c>
       <c r="G264" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B265" t="s">
         <v>56</v>
@@ -10887,12 +10892,12 @@
         <v>-2</v>
       </c>
       <c r="G265" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B266" t="s">
         <v>56</v>
@@ -10910,12 +10915,12 @@
         <v>-3</v>
       </c>
       <c r="G266" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B267" t="s">
         <v>307</v>
@@ -10933,15 +10938,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B268" t="s">
         <v>1326</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>1327</v>
-      </c>
-      <c r="C268" t="s">
-        <v>1328</v>
       </c>
       <c r="D268" t="s">
         <v>10</v>
@@ -10953,7 +10958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>1019</v>
       </c>
@@ -10976,7 +10981,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>904</v>
       </c>
@@ -10996,7 +11001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>314</v>
       </c>
@@ -11019,7 +11024,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>747</v>
       </c>
@@ -11042,7 +11047,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>796</v>
       </c>
@@ -11065,7 +11070,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>823</v>
       </c>
@@ -11088,7 +11093,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>937</v>
       </c>
@@ -11111,9 +11116,9 @@
         <v>938</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B276" t="s">
         <v>35</v>
@@ -11122,7 +11127,7 @@
         <v>8</v>
       </c>
       <c r="D276" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E276">
         <v>70</v>
@@ -11131,7 +11136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>838</v>
       </c>
@@ -11154,7 +11159,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>882</v>
       </c>
@@ -11177,9 +11182,9 @@
         <v>884</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B279" t="s">
         <v>35</v>
@@ -11188,7 +11193,7 @@
         <v>22</v>
       </c>
       <c r="D279" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E279">
         <v>76</v>
@@ -11197,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>543</v>
       </c>
@@ -11220,7 +11225,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>600</v>
       </c>
@@ -11243,7 +11248,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>439</v>
       </c>
@@ -11266,7 +11271,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>214</v>
       </c>
@@ -11289,7 +11294,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>763</v>
       </c>
@@ -11312,7 +11317,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>244</v>
       </c>
@@ -11335,7 +11340,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>226</v>
       </c>
@@ -11358,7 +11363,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>445</v>
       </c>
@@ -11381,7 +11386,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>963</v>
       </c>
@@ -11404,7 +11409,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>438</v>
       </c>
@@ -11427,7 +11432,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>806</v>
       </c>
@@ -11450,7 +11455,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291" t="s">
         <v>643</v>
       </c>
@@ -11473,7 +11478,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292" t="s">
         <v>772</v>
       </c>
@@ -11496,7 +11501,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>242</v>
       </c>
@@ -11519,7 +11524,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>1029</v>
       </c>
@@ -11539,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>260</v>
       </c>
@@ -11562,7 +11567,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>324</v>
       </c>
@@ -11585,7 +11590,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" t="s">
         <v>920</v>
       </c>
@@ -11608,7 +11613,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
         <v>124</v>
       </c>
@@ -11631,7 +11636,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
         <v>716</v>
       </c>
@@ -11654,7 +11659,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
         <v>918</v>
       </c>
@@ -11677,7 +11682,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
         <v>483</v>
       </c>
@@ -11700,7 +11705,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
         <v>336</v>
       </c>
@@ -11723,7 +11728,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
         <v>584</v>
       </c>
@@ -11746,7 +11751,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
         <v>232</v>
       </c>
@@ -11769,7 +11774,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
         <v>234</v>
       </c>
@@ -11792,7 +11797,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
         <v>258</v>
       </c>
@@ -11815,7 +11820,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
         <v>891</v>
       </c>
@@ -11838,7 +11843,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>997</v>
       </c>
@@ -11861,7 +11866,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
         <v>785</v>
       </c>
@@ -11884,7 +11889,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>931</v>
       </c>
@@ -11907,12 +11912,12 @@
         <v>932</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B311" t="s">
         <v>1418</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1419</v>
       </c>
       <c r="C311" t="s">
         <v>71</v>
@@ -11927,18 +11932,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
         <v>62</v>
       </c>
       <c r="B312" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C312" t="s">
         <v>11</v>
       </c>
       <c r="D312" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E312">
         <v>67</v>
@@ -11947,9 +11952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B313" t="s">
         <v>460</v>
@@ -11958,7 +11963,7 @@
         <v>108</v>
       </c>
       <c r="D313" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E313">
         <v>71</v>
@@ -11967,9 +11972,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B314" t="s">
         <v>460</v>
@@ -11987,18 +11992,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B315" t="s">
         <v>1439</v>
-      </c>
-      <c r="B315" t="s">
-        <v>1440</v>
       </c>
       <c r="C315" t="s">
         <v>104</v>
       </c>
       <c r="D315" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E315">
         <v>70</v>
@@ -12007,12 +12012,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B316" t="s">
         <v>1447</v>
-      </c>
-      <c r="B316" t="s">
-        <v>1448</v>
       </c>
       <c r="C316" t="s">
         <v>42</v>
@@ -12027,12 +12032,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B317" t="s">
         <v>1453</v>
-      </c>
-      <c r="B317" t="s">
-        <v>1454</v>
       </c>
       <c r="C317" t="s">
         <v>11</v>
@@ -12047,12 +12052,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B318" t="s">
         <v>1455</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1456</v>
       </c>
       <c r="C318" t="s">
         <v>11</v>
@@ -12067,9 +12072,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B319" t="s">
         <v>317</v>
@@ -12087,9 +12092,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B320" t="s">
         <v>317</v>
@@ -12107,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
         <v>471</v>
       </c>
@@ -12130,7 +12135,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
         <v>474</v>
       </c>
@@ -12150,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7">
       <c r="A323" t="s">
         <v>302</v>
       </c>
@@ -12173,12 +12178,12 @@
         <v>972</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B324" t="s">
         <v>1481</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1482</v>
       </c>
       <c r="C324" t="s">
         <v>32</v>
@@ -12193,9 +12198,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B325" t="s">
         <v>480</v>
@@ -12204,7 +12209,7 @@
         <v>11</v>
       </c>
       <c r="D325" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E325">
         <v>71</v>
@@ -12213,12 +12218,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B326" t="s">
         <v>1503</v>
-      </c>
-      <c r="B326" t="s">
-        <v>1504</v>
       </c>
       <c r="C326" t="s">
         <v>31</v>
@@ -12233,12 +12238,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B327" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C327" t="s">
         <v>11</v>
@@ -12253,12 +12258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B328" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C328" t="s">
         <v>71</v>
@@ -12273,9 +12278,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7">
       <c r="A329" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B329" t="s">
         <v>76</v>
@@ -12293,7 +12298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" t="s">
         <v>950</v>
       </c>
@@ -12316,7 +12321,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
         <v>671</v>
       </c>
@@ -12339,7 +12344,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" t="s">
         <v>315</v>
       </c>
@@ -12362,7 +12367,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" t="s">
         <v>293</v>
       </c>
@@ -12385,7 +12390,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
         <v>316</v>
       </c>
@@ -12408,7 +12413,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
         <v>309</v>
       </c>
@@ -12431,7 +12436,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
         <v>284</v>
       </c>
@@ -12454,7 +12459,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
         <v>286</v>
       </c>
@@ -12477,7 +12482,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>371</v>
       </c>
@@ -12500,7 +12505,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>694</v>
       </c>
@@ -12523,7 +12528,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>709</v>
       </c>
@@ -12546,7 +12551,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>290</v>
       </c>
@@ -12569,7 +12574,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
         <v>393</v>
       </c>
@@ -12592,7 +12597,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>150</v>
       </c>
@@ -12615,7 +12620,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>319</v>
       </c>
@@ -12638,7 +12643,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
         <v>294</v>
       </c>
@@ -12661,7 +12666,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
         <v>321</v>
       </c>
@@ -12684,7 +12689,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
         <v>151</v>
       </c>
@@ -12707,7 +12712,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" t="s">
         <v>89</v>
       </c>
@@ -12730,7 +12735,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" t="s">
         <v>493</v>
       </c>
@@ -12753,7 +12758,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" t="s">
         <v>328</v>
       </c>
@@ -12776,7 +12781,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" t="s">
         <v>496</v>
       </c>
@@ -12799,7 +12804,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" t="s">
         <v>78</v>
       </c>
@@ -12822,12 +12827,12 @@
         <v>835</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B353" t="s">
         <v>1514</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1515</v>
       </c>
       <c r="C353" t="s">
         <v>32</v>
@@ -12842,7 +12847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" t="s">
         <v>470</v>
       </c>
@@ -12865,7 +12870,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7">
       <c r="A355" t="s">
         <v>765</v>
       </c>
@@ -12888,7 +12893,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7">
       <c r="A356" t="s">
         <v>380</v>
       </c>
@@ -12911,7 +12916,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" t="s">
         <v>690</v>
       </c>
@@ -12934,7 +12939,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" t="s">
         <v>273</v>
       </c>
@@ -12957,7 +12962,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" t="s">
         <v>162</v>
       </c>
@@ -12977,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" t="s">
         <v>235</v>
       </c>
@@ -12997,7 +13002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7">
       <c r="A361" t="s">
         <v>175</v>
       </c>
@@ -13020,7 +13025,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" t="s">
         <v>501</v>
       </c>
@@ -13043,7 +13048,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" t="s">
         <v>310</v>
       </c>
@@ -13066,7 +13071,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" t="s">
         <v>590</v>
       </c>
@@ -13089,7 +13094,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" t="s">
         <v>669</v>
       </c>
@@ -13112,7 +13117,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" t="s">
         <v>227</v>
       </c>
@@ -13135,7 +13140,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" t="s">
         <v>229</v>
       </c>
@@ -13158,7 +13163,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" t="s">
         <v>850</v>
       </c>
@@ -13181,7 +13186,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
         <v>415</v>
       </c>
@@ -13204,7 +13209,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" t="s">
         <v>911</v>
       </c>
@@ -13227,7 +13232,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" t="s">
         <v>922</v>
       </c>
@@ -13250,7 +13255,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" t="s">
         <v>928</v>
       </c>
@@ -13273,7 +13278,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" t="s">
         <v>279</v>
       </c>
@@ -13296,12 +13301,12 @@
         <v>994</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B374" t="s">
         <v>1344</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1345</v>
       </c>
       <c r="C374" t="s">
         <v>42</v>
@@ -13316,18 +13321,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B375" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C375" t="s">
         <v>14</v>
       </c>
       <c r="D375" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E375">
         <v>65</v>
@@ -13336,18 +13341,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B376" t="s">
         <v>1216</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1217</v>
       </c>
       <c r="C376" t="s">
         <v>43</v>
       </c>
       <c r="D376" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E376">
         <v>71</v>
@@ -13356,12 +13361,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B377" t="s">
         <v>1479</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1480</v>
       </c>
       <c r="C377" t="s">
         <v>26</v>
@@ -13376,7 +13381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" t="s">
         <v>247</v>
       </c>
@@ -13396,10 +13401,10 @@
         <v>3</v>
       </c>
       <c r="G378" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
       <c r="A379" t="s">
         <v>1031</v>
       </c>
@@ -13422,7 +13427,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" t="s">
         <v>473</v>
       </c>
@@ -13442,12 +13447,12 @@
         <v>2</v>
       </c>
       <c r="G380" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
       <c r="A381" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B381" t="s">
         <v>80</v>
@@ -13465,12 +13470,12 @@
         <v>2</v>
       </c>
       <c r="G381" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
       <c r="A382" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B382" t="s">
         <v>80</v>
@@ -13488,10 +13493,10 @@
         <v>2</v>
       </c>
       <c r="G382" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383" t="s">
         <v>1078</v>
       </c>
@@ -13514,9 +13519,9 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B384" t="s">
         <v>80</v>
@@ -13534,12 +13539,12 @@
         <v>1</v>
       </c>
       <c r="G384" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
       <c r="A385" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B385" t="s">
         <v>80</v>
@@ -13557,10 +13562,10 @@
         <v>1</v>
       </c>
       <c r="G385" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
       <c r="A386" t="s">
         <v>140</v>
       </c>
@@ -13580,10 +13585,10 @@
         <v>1</v>
       </c>
       <c r="G386" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
       <c r="A387" t="s">
         <v>271</v>
       </c>
@@ -13603,12 +13608,12 @@
         <v>1</v>
       </c>
       <c r="G387" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
       <c r="A388" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B388" t="s">
         <v>80</v>
@@ -13626,10 +13631,10 @@
         <v>1</v>
       </c>
       <c r="G388" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
       <c r="A389" t="s">
         <v>1065</v>
       </c>
@@ -13652,7 +13657,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" t="s">
         <v>186</v>
       </c>
@@ -13675,9 +13680,9 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B391" t="s">
         <v>80</v>
@@ -13695,12 +13700,12 @@
         <v>-1</v>
       </c>
       <c r="G391" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B392" t="s">
         <v>80</v>
@@ -13718,12 +13723,12 @@
         <v>-1</v>
       </c>
       <c r="G392" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
       <c r="A393" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B393" t="s">
         <v>80</v>
@@ -13741,10 +13746,10 @@
         <v>-1</v>
       </c>
       <c r="G393" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
       <c r="A394" t="s">
         <v>248</v>
       </c>
@@ -13764,12 +13769,12 @@
         <v>-1</v>
       </c>
       <c r="G394" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
       <c r="A395" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B395" t="s">
         <v>80</v>
@@ -13787,10 +13792,10 @@
         <v>-1</v>
       </c>
       <c r="G395" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
       <c r="A396" t="s">
         <v>262</v>
       </c>
@@ -13810,12 +13815,12 @@
         <v>-1</v>
       </c>
       <c r="G396" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
       <c r="A397" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B397" t="s">
         <v>80</v>
@@ -13833,10 +13838,10 @@
         <v>-1</v>
       </c>
       <c r="G397" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
       <c r="A398" t="s">
         <v>153</v>
       </c>
@@ -13859,7 +13864,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" t="s">
         <v>152</v>
       </c>
@@ -13879,15 +13884,15 @@
         <v>-2</v>
       </c>
       <c r="G399" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
       <c r="A400" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B400" t="s">
         <v>1467</v>
-      </c>
-      <c r="B400" t="s">
-        <v>1468</v>
       </c>
       <c r="C400" t="s">
         <v>26</v>
@@ -13902,7 +13907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" t="s">
         <v>167</v>
       </c>
@@ -13925,9 +13930,9 @@
         <v>870</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B402" t="s">
         <v>97</v>
@@ -13945,10 +13950,10 @@
         <v>3</v>
       </c>
       <c r="G402" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
       <c r="A403" t="s">
         <v>510</v>
       </c>
@@ -13971,7 +13976,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" t="s">
         <v>630</v>
       </c>
@@ -13994,7 +13999,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" t="s">
         <v>295</v>
       </c>
@@ -14017,7 +14022,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" t="s">
         <v>889</v>
       </c>
@@ -14040,7 +14045,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" t="s">
         <v>1001</v>
       </c>
@@ -14063,7 +14068,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" t="s">
         <v>1006</v>
       </c>
@@ -14086,7 +14091,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" t="s">
         <v>369</v>
       </c>
@@ -14106,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" t="s">
         <v>289</v>
       </c>
@@ -14129,7 +14134,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" t="s">
         <v>457</v>
       </c>
@@ -14152,7 +14157,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" t="s">
         <v>384</v>
       </c>
@@ -14175,7 +14180,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" t="s">
         <v>944</v>
       </c>
@@ -14198,7 +14203,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" t="s">
         <v>986</v>
       </c>
@@ -14221,7 +14226,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" t="s">
         <v>428</v>
       </c>
@@ -14244,12 +14249,12 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B416" t="s">
         <v>1342</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1343</v>
       </c>
       <c r="C416" t="s">
         <v>16</v>
@@ -14264,9 +14269,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B417" t="s">
         <v>306</v>
@@ -14275,7 +14280,7 @@
         <v>47</v>
       </c>
       <c r="D417" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E417">
         <v>71</v>
@@ -14284,18 +14289,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B418" t="s">
         <v>1150</v>
-      </c>
-      <c r="B418" t="s">
-        <v>1151</v>
       </c>
       <c r="C418" t="s">
         <v>26</v>
       </c>
       <c r="D418" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E418">
         <v>73</v>
@@ -14304,10 +14309,10 @@
         <v>-2</v>
       </c>
       <c r="G418" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
       <c r="A419" t="s">
         <v>506</v>
       </c>
@@ -14330,7 +14335,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7">
       <c r="A420" t="s">
         <v>503</v>
       </c>
@@ -14353,7 +14358,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" t="s">
         <v>335</v>
       </c>
@@ -14376,7 +14381,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" t="s">
         <v>534</v>
       </c>
@@ -14399,7 +14404,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" t="s">
         <v>373</v>
       </c>
@@ -14422,7 +14427,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" t="s">
         <v>858</v>
       </c>
@@ -14445,7 +14450,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7">
       <c r="A425" t="s">
         <v>924</v>
       </c>
@@ -14468,7 +14473,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" t="s">
         <v>270</v>
       </c>
@@ -14491,7 +14496,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" t="s">
         <v>988</v>
       </c>
@@ -14514,7 +14519,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" t="s">
         <v>973</v>
       </c>
@@ -14537,7 +14542,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" t="s">
         <v>107</v>
       </c>
@@ -14560,7 +14565,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" t="s">
         <v>556</v>
       </c>
@@ -14583,7 +14588,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" t="s">
         <v>593</v>
       </c>
@@ -14606,7 +14611,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" t="s">
         <v>377</v>
       </c>
@@ -14629,7 +14634,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" t="s">
         <v>731</v>
       </c>
@@ -14652,7 +14657,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" t="s">
         <v>782</v>
       </c>
@@ -14675,9 +14680,9 @@
         <v>783</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B435" t="s">
         <v>64</v>
@@ -14695,10 +14700,10 @@
         <v>-1</v>
       </c>
       <c r="G435" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
       <c r="A436" t="s">
         <v>790</v>
       </c>
@@ -14721,7 +14726,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" t="s">
         <v>843</v>
       </c>
@@ -14744,18 +14749,18 @@
         <v>844</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B438" t="s">
         <v>86</v>
       </c>
       <c r="C438" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D438" t="s">
         <v>1146</v>
-      </c>
-      <c r="D438" t="s">
-        <v>1147</v>
       </c>
       <c r="E438">
         <v>74</v>
@@ -14764,9 +14769,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B439" t="s">
         <v>86</v>
@@ -14784,12 +14789,12 @@
         <v>2</v>
       </c>
       <c r="G439" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
       <c r="A440" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B440" t="s">
         <v>86</v>
@@ -14807,10 +14812,10 @@
         <v>2</v>
       </c>
       <c r="G440" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
       <c r="A441" t="s">
         <v>385</v>
       </c>
@@ -14830,12 +14835,12 @@
         <v>1</v>
       </c>
       <c r="G441" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
       <c r="A442" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B442" t="s">
         <v>86</v>
@@ -14853,12 +14858,12 @@
         <v>1</v>
       </c>
       <c r="G442" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
       <c r="A443" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B443" t="s">
         <v>86</v>
@@ -14876,10 +14881,10 @@
         <v>1</v>
       </c>
       <c r="G443" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
       <c r="A444" t="s">
         <v>240</v>
       </c>
@@ -14899,12 +14904,12 @@
         <v>1</v>
       </c>
       <c r="G444" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
       <c r="A445" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B445" t="s">
         <v>86</v>
@@ -14922,10 +14927,10 @@
         <v>1</v>
       </c>
       <c r="G445" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
       <c r="A446" t="s">
         <v>414</v>
       </c>
@@ -14945,10 +14950,10 @@
         <v>1</v>
       </c>
       <c r="G446" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
       <c r="A447" t="s">
         <v>245</v>
       </c>
@@ -14968,12 +14973,12 @@
         <v>0</v>
       </c>
       <c r="G447" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
       <c r="A448" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B448" t="s">
         <v>86</v>
@@ -14991,12 +14996,12 @@
         <v>0</v>
       </c>
       <c r="G448" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
       <c r="A449" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B449" t="s">
         <v>86</v>
@@ -15014,10 +15019,10 @@
         <v>0</v>
       </c>
       <c r="G449" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
       <c r="A450" t="s">
         <v>351</v>
       </c>
@@ -15037,12 +15042,12 @@
         <v>-1</v>
       </c>
       <c r="G450" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
       <c r="A451" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B451" t="s">
         <v>86</v>
@@ -15051,7 +15056,7 @@
         <v>44</v>
       </c>
       <c r="D451" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E451">
         <v>88</v>
@@ -15060,10 +15065,10 @@
         <v>-1</v>
       </c>
       <c r="G451" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
       <c r="A452" t="s">
         <v>382</v>
       </c>
@@ -15083,10 +15088,10 @@
         <v>-1</v>
       </c>
       <c r="G452" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
       <c r="A453" t="s">
         <v>222</v>
       </c>
@@ -15106,12 +15111,12 @@
         <v>-1</v>
       </c>
       <c r="G453" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7">
       <c r="A454" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B454" t="s">
         <v>86</v>
@@ -15129,10 +15134,10 @@
         <v>-1</v>
       </c>
       <c r="G454" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
       <c r="A455" t="s">
         <v>419</v>
       </c>
@@ -15152,10 +15157,10 @@
         <v>-1</v>
       </c>
       <c r="G455" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
       <c r="A456" t="s">
         <v>426</v>
       </c>
@@ -15175,10 +15180,10 @@
         <v>-1</v>
       </c>
       <c r="G456" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
       <c r="A457" t="s">
         <v>356</v>
       </c>
@@ -15198,10 +15203,10 @@
         <v>-2</v>
       </c>
       <c r="G457" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
       <c r="A458" t="s">
         <v>237</v>
       </c>
@@ -15221,15 +15226,15 @@
         <v>-3</v>
       </c>
       <c r="G458" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
       <c r="A459" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B459" t="s">
         <v>1472</v>
-      </c>
-      <c r="B459" t="s">
-        <v>1473</v>
       </c>
       <c r="C459" t="s">
         <v>9</v>
@@ -15244,7 +15249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7">
       <c r="A460" t="s">
         <v>477</v>
       </c>
@@ -15267,7 +15272,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7">
       <c r="A461" t="s">
         <v>573</v>
       </c>
@@ -15290,7 +15295,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7">
       <c r="A462" t="s">
         <v>179</v>
       </c>
@@ -15313,7 +15318,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7">
       <c r="A463" t="s">
         <v>787</v>
       </c>
@@ -15336,7 +15341,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7">
       <c r="A464" t="s">
         <v>246</v>
       </c>
@@ -15359,7 +15364,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7">
       <c r="A465" t="s">
         <v>799</v>
       </c>
@@ -15382,7 +15387,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7">
       <c r="A466" t="s">
         <v>861</v>
       </c>
@@ -15405,7 +15410,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7">
       <c r="A467" t="s">
         <v>899</v>
       </c>
@@ -15428,7 +15433,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7">
       <c r="A468" t="s">
         <v>187</v>
       </c>
@@ -15451,7 +15456,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7">
       <c r="A469" t="s">
         <v>569</v>
       </c>
@@ -15474,7 +15479,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7">
       <c r="A470" t="s">
         <v>202</v>
       </c>
@@ -15497,7 +15502,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7">
       <c r="A471" t="s">
         <v>682</v>
       </c>
@@ -15520,7 +15525,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7">
       <c r="A472" t="s">
         <v>698</v>
       </c>
@@ -15543,7 +15548,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7">
       <c r="A473" t="s">
         <v>223</v>
       </c>
@@ -15566,7 +15571,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7">
       <c r="A474" t="s">
         <v>901</v>
       </c>
@@ -15589,7 +15594,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7">
       <c r="A475" t="s">
         <v>276</v>
       </c>
@@ -15612,7 +15617,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7">
       <c r="A476" t="s">
         <v>176</v>
       </c>
@@ -15632,10 +15637,10 @@
         <v>-1</v>
       </c>
       <c r="G476" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7">
       <c r="A477" t="s">
         <v>617</v>
       </c>
@@ -15658,7 +15663,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7">
       <c r="A478" t="s">
         <v>707</v>
       </c>
@@ -15681,7 +15686,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7">
       <c r="A479" t="s">
         <v>975</v>
       </c>
@@ -15704,7 +15709,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7">
       <c r="A480" t="s">
         <v>488</v>
       </c>
@@ -15727,7 +15732,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7">
       <c r="A481" t="s">
         <v>198</v>
       </c>
@@ -15750,7 +15755,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7">
       <c r="A482" t="s">
         <v>612</v>
       </c>
@@ -15773,7 +15778,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7">
       <c r="A483" t="s">
         <v>368</v>
       </c>
@@ -15796,7 +15801,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7">
       <c r="A484" t="s">
         <v>430</v>
       </c>
@@ -15819,7 +15824,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7">
       <c r="A485" t="s">
         <v>127</v>
       </c>
@@ -15842,7 +15847,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7">
       <c r="A486" t="s">
         <v>420</v>
       </c>
@@ -15865,7 +15870,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7">
       <c r="A487" t="s">
         <v>977</v>
       </c>
@@ -15888,7 +15893,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7">
       <c r="A488" t="s">
         <v>122</v>
       </c>
@@ -15911,7 +15916,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7">
       <c r="A489" t="s">
         <v>432</v>
       </c>
@@ -15922,7 +15927,7 @@
         <v>11</v>
       </c>
       <c r="D489" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E489">
         <v>80</v>
@@ -15931,9 +15936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7">
       <c r="A490" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B490" t="s">
         <v>7</v>
@@ -15951,7 +15956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7">
       <c r="A491" t="s">
         <v>308</v>
       </c>
@@ -15971,9 +15976,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7">
       <c r="A492" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B492" t="s">
         <v>7</v>
@@ -15982,7 +15987,7 @@
         <v>51</v>
       </c>
       <c r="D492" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E492">
         <v>63</v>
@@ -15991,9 +15996,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7">
       <c r="A493" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B493" t="s">
         <v>7</v>
@@ -16002,7 +16007,7 @@
         <v>51</v>
       </c>
       <c r="D493" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E493">
         <v>68</v>
@@ -16011,7 +16016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7">
       <c r="A494" t="s">
         <v>465</v>
       </c>
@@ -16022,7 +16027,7 @@
         <v>11</v>
       </c>
       <c r="D494" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E494">
         <v>73</v>
@@ -16031,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7">
       <c r="A495" t="s">
         <v>536</v>
       </c>
@@ -16054,7 +16059,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7">
       <c r="A496" t="s">
         <v>615</v>
       </c>
@@ -16077,7 +16082,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7">
       <c r="A497" t="s">
         <v>374</v>
       </c>
@@ -16100,7 +16105,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7">
       <c r="A498" t="s">
         <v>720</v>
       </c>
@@ -16123,7 +16128,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7">
       <c r="A499" t="s">
         <v>170</v>
       </c>
@@ -16146,7 +16151,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7">
       <c r="A500" t="s">
         <v>808</v>
       </c>
@@ -16169,7 +16174,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7">
       <c r="A501" t="s">
         <v>101</v>
       </c>
@@ -16192,7 +16197,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7">
       <c r="A502" t="s">
         <v>916</v>
       </c>
@@ -16215,7 +16220,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7">
       <c r="A503" t="s">
         <v>434</v>
       </c>
@@ -16238,7 +16243,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7">
       <c r="A504" t="s">
         <v>193</v>
       </c>
@@ -16261,7 +16266,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7">
       <c r="A505" t="s">
         <v>749</v>
       </c>
@@ -16284,7 +16289,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7">
       <c r="A506" t="s">
         <v>277</v>
       </c>
@@ -16307,12 +16312,12 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7">
       <c r="A507" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B507" t="s">
         <v>1404</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1405</v>
       </c>
       <c r="C507" t="s">
         <v>32</v>
@@ -16327,7 +16332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7">
       <c r="A508" t="s">
         <v>478</v>
       </c>
@@ -16347,10 +16352,10 @@
         <v>4</v>
       </c>
       <c r="G508" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7">
       <c r="A509" t="s">
         <v>397</v>
       </c>
@@ -16373,7 +16378,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7">
       <c r="A510" t="s">
         <v>228</v>
       </c>
@@ -16393,12 +16398,12 @@
         <v>2</v>
       </c>
       <c r="G510" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7">
       <c r="A511" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B511" t="s">
         <v>102</v>
@@ -16416,10 +16421,10 @@
         <v>2</v>
       </c>
       <c r="G511" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7">
       <c r="A512" t="s">
         <v>1061</v>
       </c>
@@ -16442,9 +16447,9 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7">
       <c r="A513" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B513" t="s">
         <v>102</v>
@@ -16462,10 +16467,10 @@
         <v>1</v>
       </c>
       <c r="G513" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7">
       <c r="A514" t="s">
         <v>390</v>
       </c>
@@ -16485,12 +16490,12 @@
         <v>1</v>
       </c>
       <c r="G514" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7">
       <c r="A515" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B515" t="s">
         <v>102</v>
@@ -16508,10 +16513,10 @@
         <v>1</v>
       </c>
       <c r="G515" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7">
       <c r="A516" t="s">
         <v>261</v>
       </c>
@@ -16531,12 +16536,12 @@
         <v>1</v>
       </c>
       <c r="G516" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7">
       <c r="A517" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B517" t="s">
         <v>102</v>
@@ -16554,10 +16559,10 @@
         <v>1</v>
       </c>
       <c r="G517" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7">
       <c r="A518" t="s">
         <v>1048</v>
       </c>
@@ -16580,7 +16585,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7">
       <c r="A519" t="s">
         <v>192</v>
       </c>
@@ -16603,7 +16608,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7">
       <c r="A520" t="s">
         <v>383</v>
       </c>
@@ -16623,10 +16628,10 @@
         <v>-1</v>
       </c>
       <c r="G520" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7">
       <c r="A521" t="s">
         <v>268</v>
       </c>
@@ -16646,10 +16651,10 @@
         <v>-1</v>
       </c>
       <c r="G521" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7">
       <c r="A522" t="s">
         <v>189</v>
       </c>
@@ -16672,9 +16677,9 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7">
       <c r="A523" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B523" t="s">
         <v>102</v>
@@ -16692,10 +16697,10 @@
         <v>-2</v>
       </c>
       <c r="G523" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7">
       <c r="A524" t="s">
         <v>255</v>
       </c>
@@ -16715,10 +16720,10 @@
         <v>-2</v>
       </c>
       <c r="G524" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7">
       <c r="A525" t="s">
         <v>979</v>
       </c>
@@ -16741,7 +16746,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7">
       <c r="A526" t="s">
         <v>199</v>
       </c>
@@ -16764,7 +16769,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7">
       <c r="A527" t="s">
         <v>653</v>
       </c>
@@ -16787,7 +16792,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7">
       <c r="A528" t="s">
         <v>886</v>
       </c>
@@ -16810,7 +16815,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7">
       <c r="A529" t="s">
         <v>893</v>
       </c>
@@ -16833,7 +16838,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7">
       <c r="A530" t="s">
         <v>958</v>
       </c>
@@ -16856,7 +16861,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7">
       <c r="A531" t="s">
         <v>995</v>
       </c>
@@ -16879,7 +16884,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7">
       <c r="A532" t="s">
         <v>526</v>
       </c>
@@ -16902,9 +16907,9 @@
         <v>527</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7">
       <c r="A533" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B533" t="s">
         <v>17</v>
@@ -16913,7 +16918,7 @@
         <v>11</v>
       </c>
       <c r="D533" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E533">
         <v>66</v>
@@ -16922,9 +16927,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7">
       <c r="A534" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B534" t="s">
         <v>17</v>
@@ -16942,9 +16947,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7">
       <c r="A535" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B535" t="s">
         <v>17</v>
@@ -16962,9 +16967,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7">
       <c r="A536" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B536" t="s">
         <v>17</v>
@@ -16982,7 +16987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7">
       <c r="A537" t="s">
         <v>200</v>
       </c>
@@ -17005,7 +17010,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7">
       <c r="A538" t="s">
         <v>756</v>
       </c>
@@ -17028,7 +17033,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7">
       <c r="A539" t="s">
         <v>241</v>
       </c>
@@ -17051,7 +17056,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7">
       <c r="A540" t="s">
         <v>874</v>
       </c>
@@ -17074,7 +17079,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7">
       <c r="A541" t="s">
         <v>400</v>
       </c>
@@ -17097,7 +17102,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7">
       <c r="A542" t="s">
         <v>360</v>
       </c>
@@ -17120,7 +17125,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7">
       <c r="A543" t="s">
         <v>1017</v>
       </c>
@@ -17143,7 +17148,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7">
       <c r="A544" t="s">
         <v>142</v>
       </c>
@@ -17163,10 +17168,10 @@
         <v>2</v>
       </c>
       <c r="G544" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7">
       <c r="A545" t="s">
         <v>188</v>
       </c>
@@ -17189,7 +17194,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7">
       <c r="A546" t="s">
         <v>342</v>
       </c>
@@ -17212,7 +17217,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7">
       <c r="A547" t="s">
         <v>608</v>
       </c>
@@ -17235,7 +17240,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7">
       <c r="A548" t="s">
         <v>364</v>
       </c>
@@ -17258,7 +17263,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7">
       <c r="A549" t="s">
         <v>645</v>
       </c>
@@ -17281,7 +17286,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7">
       <c r="A550" t="s">
         <v>111</v>
       </c>
@@ -17304,7 +17309,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7">
       <c r="A551" t="s">
         <v>692</v>
       </c>
@@ -17327,7 +17332,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7">
       <c r="A552" t="s">
         <v>224</v>
       </c>
@@ -17350,7 +17355,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7">
       <c r="A553" t="s">
         <v>230</v>
       </c>
@@ -17373,7 +17378,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7">
       <c r="A554" t="s">
         <v>423</v>
       </c>
@@ -17396,7 +17401,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7">
       <c r="A555" t="s">
         <v>213</v>
       </c>
@@ -17416,9 +17421,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7">
       <c r="A556" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B556" t="s">
         <v>96</v>
@@ -17436,9 +17441,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7">
       <c r="A557" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B557" t="s">
         <v>96</v>
@@ -17456,7 +17461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7">
       <c r="A558" t="s">
         <v>333</v>
       </c>
@@ -17479,7 +17484,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7">
       <c r="A559" t="s">
         <v>909</v>
       </c>
@@ -17502,7 +17507,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7">
       <c r="A560" t="s">
         <v>421</v>
       </c>
@@ -17525,7 +17530,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7">
       <c r="A561" t="s">
         <v>411</v>
       </c>
@@ -17548,18 +17553,18 @@
         <v>993</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7">
       <c r="A562" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B562" t="s">
         <v>1410</v>
-      </c>
-      <c r="B562" t="s">
-        <v>1411</v>
       </c>
       <c r="C562" t="s">
         <v>42</v>
       </c>
       <c r="D562" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E562">
         <v>54</v>
@@ -17568,7 +17573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7">
       <c r="A563" t="s">
         <v>744</v>
       </c>
@@ -17591,7 +17596,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7">
       <c r="A564" t="s">
         <v>872</v>
       </c>
@@ -17614,7 +17619,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7">
       <c r="A565" t="s">
         <v>177</v>
       </c>
@@ -17637,7 +17642,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7">
       <c r="A566" t="s">
         <v>640</v>
       </c>
@@ -17660,7 +17665,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7">
       <c r="A567" t="s">
         <v>655</v>
       </c>
@@ -17683,7 +17688,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7">
       <c r="A568" t="s">
         <v>685</v>
       </c>
@@ -17706,7 +17711,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7">
       <c r="A569" t="s">
         <v>810</v>
       </c>
@@ -17729,7 +17734,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7">
       <c r="A570" t="s">
         <v>1012</v>
       </c>
@@ -17752,7 +17757,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7">
       <c r="A571" t="s">
         <v>205</v>
       </c>
@@ -17772,7 +17777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7">
       <c r="A572" t="s">
         <v>508</v>
       </c>
@@ -17795,7 +17800,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7">
       <c r="A573" t="s">
         <v>539</v>
       </c>
@@ -17818,7 +17823,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7">
       <c r="A574" t="s">
         <v>350</v>
       </c>
@@ -17841,7 +17846,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7">
       <c r="A575" t="s">
         <v>357</v>
       </c>
@@ -17864,9 +17869,9 @@
         <v>629</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7">
       <c r="A576" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B576" t="s">
         <v>13</v>
@@ -17884,10 +17889,10 @@
         <v>4</v>
       </c>
       <c r="G576" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7">
       <c r="A577" t="s">
         <v>158</v>
       </c>
@@ -17910,7 +17915,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7">
       <c r="A578" t="s">
         <v>148</v>
       </c>
@@ -17930,10 +17935,10 @@
         <v>3</v>
       </c>
       <c r="G578" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7">
       <c r="A579" t="s">
         <v>341</v>
       </c>
@@ -17956,9 +17961,9 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7">
       <c r="A580" t="s">
-        <v>1103</v>
+        <v>1515</v>
       </c>
       <c r="B580" t="s">
         <v>13</v>
@@ -17976,10 +17981,10 @@
         <v>1</v>
       </c>
       <c r="G580" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7">
       <c r="A581" t="s">
         <v>395</v>
       </c>
@@ -17999,12 +18004,12 @@
         <v>1</v>
       </c>
       <c r="G581" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7">
       <c r="A582" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B582" t="s">
         <v>13</v>
@@ -18022,12 +18027,12 @@
         <v>1</v>
       </c>
       <c r="G582" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7">
       <c r="A583" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B583" t="s">
         <v>13</v>
@@ -18045,10 +18050,10 @@
         <v>1</v>
       </c>
       <c r="G583" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7">
       <c r="A584" t="s">
         <v>427</v>
       </c>
@@ -18068,12 +18073,12 @@
         <v>1</v>
       </c>
       <c r="G584" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7">
       <c r="A585" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B585" t="s">
         <v>13</v>
@@ -18091,10 +18096,10 @@
         <v>1</v>
       </c>
       <c r="G585" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7">
       <c r="A586" t="s">
         <v>253</v>
       </c>
@@ -18114,12 +18119,12 @@
         <v>0</v>
       </c>
       <c r="G586" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7">
       <c r="A587" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B587" t="s">
         <v>13</v>
@@ -18137,12 +18142,12 @@
         <v>-1</v>
       </c>
       <c r="G587" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7">
       <c r="A588" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B588" t="s">
         <v>13</v>
@@ -18160,10 +18165,10 @@
         <v>-1</v>
       </c>
       <c r="G588" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7">
       <c r="A589" t="s">
         <v>274</v>
       </c>
@@ -18183,12 +18188,12 @@
         <v>-1</v>
       </c>
       <c r="G589" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7">
       <c r="A590" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B590" t="s">
         <v>13</v>
@@ -18206,10 +18211,10 @@
         <v>-1</v>
       </c>
       <c r="G590" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7">
       <c r="A591" t="s">
         <v>125</v>
       </c>
@@ -18229,12 +18234,12 @@
         <v>-1</v>
       </c>
       <c r="G591" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7">
       <c r="A592" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B592" t="s">
         <v>13</v>
@@ -18252,12 +18257,12 @@
         <v>-1</v>
       </c>
       <c r="G592" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7">
       <c r="A593" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B593" t="s">
         <v>82</v>
@@ -18275,10 +18280,10 @@
         <v>3</v>
       </c>
       <c r="G593" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7">
       <c r="A594" t="s">
         <v>1041</v>
       </c>
@@ -18301,7 +18306,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7">
       <c r="A595" t="s">
         <v>204</v>
       </c>
@@ -18321,10 +18326,10 @@
         <v>2</v>
       </c>
       <c r="G595" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7">
       <c r="A596" t="s">
         <v>181</v>
       </c>
@@ -18347,7 +18352,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7">
       <c r="A597" t="s">
         <v>348</v>
       </c>
@@ -18370,7 +18375,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7">
       <c r="A598" t="s">
         <v>1098</v>
       </c>
@@ -18393,7 +18398,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7">
       <c r="A599" t="s">
         <v>211</v>
       </c>
@@ -18413,10 +18418,10 @@
         <v>1</v>
       </c>
       <c r="G599" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7">
       <c r="A600" t="s">
         <v>215</v>
       </c>
@@ -18436,10 +18441,10 @@
         <v>1</v>
       </c>
       <c r="G600" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7">
       <c r="A601" t="s">
         <v>394</v>
       </c>
@@ -18459,12 +18464,12 @@
         <v>1</v>
       </c>
       <c r="G601" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7">
       <c r="A602" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B602" t="s">
         <v>82</v>
@@ -18482,12 +18487,12 @@
         <v>1</v>
       </c>
       <c r="G602" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7">
       <c r="A603" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B603" t="s">
         <v>82</v>
@@ -18505,12 +18510,12 @@
         <v>1</v>
       </c>
       <c r="G603" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7">
       <c r="A604" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B604" t="s">
         <v>82</v>
@@ -18528,12 +18533,12 @@
         <v>1</v>
       </c>
       <c r="G604" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7">
+      <c r="A605" t="s">
         <v>1375</v>
-      </c>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
-        <v>1376</v>
       </c>
       <c r="B605" t="s">
         <v>82</v>
@@ -18551,12 +18556,12 @@
         <v>1</v>
       </c>
       <c r="G605" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7">
       <c r="A606" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B606" t="s">
         <v>82</v>
@@ -18574,9 +18579,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7">
       <c r="A607" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B607" t="s">
         <v>82</v>
@@ -18594,9 +18599,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7">
       <c r="A608" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B608" t="s">
         <v>82</v>
@@ -18614,7 +18619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7">
       <c r="A609" t="s">
         <v>827</v>
       </c>
@@ -18637,7 +18642,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7">
       <c r="A610" t="s">
         <v>1037</v>
       </c>
@@ -18660,7 +18665,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7">
       <c r="A611" t="s">
         <v>1091</v>
       </c>
@@ -18683,7 +18688,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7">
       <c r="A612" t="s">
         <v>209</v>
       </c>
@@ -18706,9 +18711,9 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7">
       <c r="A613" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B613" t="s">
         <v>82</v>
@@ -18729,7 +18734,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7">
       <c r="A614" t="s">
         <v>359</v>
       </c>
@@ -18749,12 +18754,12 @@
         <v>-1</v>
       </c>
       <c r="G614" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7">
       <c r="A615" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B615" t="s">
         <v>82</v>
@@ -18772,15 +18777,15 @@
         <v>-1</v>
       </c>
       <c r="G615" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7">
       <c r="A616" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B616" t="s">
         <v>1159</v>
-      </c>
-      <c r="B616" t="s">
-        <v>1160</v>
       </c>
       <c r="C616" t="s">
         <v>32</v>
@@ -18795,10 +18800,10 @@
         <v>-3</v>
       </c>
       <c r="G616" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7">
       <c r="A617" t="s">
         <v>845</v>
       </c>
@@ -18821,7 +18826,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7">
       <c r="A618" t="s">
         <v>431</v>
       </c>
@@ -18844,7 +18849,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7">
       <c r="A619" t="s">
         <v>275</v>
       </c>
@@ -18867,9 +18872,9 @@
         <v>983</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7">
       <c r="A620" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B620" t="s">
         <v>60</v>
@@ -18878,7 +18883,7 @@
         <v>21</v>
       </c>
       <c r="D620" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E620">
         <v>78</v>
@@ -18887,9 +18892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7">
       <c r="A621" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B621" t="s">
         <v>60</v>
@@ -18898,7 +18903,7 @@
         <v>21</v>
       </c>
       <c r="D621" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E621">
         <v>72</v>
@@ -18907,7 +18912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7">
       <c r="A622" t="s">
         <v>330</v>
       </c>
@@ -18930,7 +18935,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7">
       <c r="A623" t="s">
         <v>532</v>
       </c>
@@ -18953,7 +18958,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7">
       <c r="A624" t="s">
         <v>347</v>
       </c>
@@ -18976,7 +18981,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7">
       <c r="A625" t="s">
         <v>554</v>
       </c>
@@ -18999,7 +19004,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7">
       <c r="A626" t="s">
         <v>358</v>
       </c>
@@ -19022,7 +19027,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7">
       <c r="A627" t="s">
         <v>675</v>
       </c>
@@ -19045,7 +19050,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7">
       <c r="A628" t="s">
         <v>219</v>
       </c>
@@ -19068,7 +19073,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7">
       <c r="A629" t="s">
         <v>751</v>
       </c>
@@ -19091,7 +19096,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7">
       <c r="A630" t="s">
         <v>386</v>
       </c>
@@ -19114,7 +19119,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7">
       <c r="A631" t="s">
         <v>387</v>
       </c>
@@ -19137,7 +19142,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7">
       <c r="A632" t="s">
         <v>409</v>
       </c>
@@ -19160,7 +19165,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7">
       <c r="A633" t="s">
         <v>413</v>
       </c>
@@ -19183,7 +19188,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7">
       <c r="A634" t="s">
         <v>263</v>
       </c>
@@ -19206,7 +19211,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7">
       <c r="A635" t="s">
         <v>714</v>
       </c>
@@ -19229,7 +19234,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7">
       <c r="A636" t="s">
         <v>818</v>
       </c>
@@ -19252,7 +19257,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7">
       <c r="A637" t="s">
         <v>331</v>
       </c>
@@ -19275,7 +19280,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7">
       <c r="A638" t="s">
         <v>220</v>
       </c>
@@ -19298,7 +19303,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7">
       <c r="A639" t="s">
         <v>433</v>
       </c>
@@ -19321,7 +19326,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7">
       <c r="A640" t="s">
         <v>947</v>
       </c>
@@ -19344,7 +19349,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7">
       <c r="A641" t="s">
         <v>184</v>
       </c>
@@ -19367,7 +19372,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7">
       <c r="A642" t="s">
         <v>578</v>
       </c>
@@ -19390,7 +19395,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7">
       <c r="A643" t="s">
         <v>610</v>
       </c>
@@ -19413,7 +19418,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7">
       <c r="A644" t="s">
         <v>221</v>
       </c>
@@ -19436,7 +19441,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7">
       <c r="A645" t="s">
         <v>366</v>
       </c>
@@ -19459,7 +19464,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7">
       <c r="A646" t="s">
         <v>722</v>
       </c>
@@ -19482,7 +19487,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7">
       <c r="A647" t="s">
         <v>725</v>
       </c>
@@ -19505,7 +19510,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7">
       <c r="A648" t="s">
         <v>737</v>
       </c>
@@ -19528,7 +19533,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7">
       <c r="A649" t="s">
         <v>231</v>
       </c>
@@ -19551,7 +19556,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7">
       <c r="A650" t="s">
         <v>803</v>
       </c>
@@ -19574,7 +19579,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7">
       <c r="A651" t="s">
         <v>814</v>
       </c>
@@ -19597,7 +19602,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7">
       <c r="A652" t="s">
         <v>657</v>
       </c>
@@ -19620,7 +19625,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7">
       <c r="A653" t="s">
         <v>372</v>
       </c>
@@ -19643,7 +19648,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7">
       <c r="A654" t="s">
         <v>820</v>
       </c>
@@ -19666,7 +19671,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7">
       <c r="A655" t="s">
         <v>867</v>
       </c>
@@ -19689,9 +19694,9 @@
         <v>868</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7">
       <c r="A656" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B656" t="s">
         <v>448</v>
@@ -19709,7 +19714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7">
       <c r="A657" t="s">
         <v>243</v>
       </c>
@@ -19732,7 +19737,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7">
       <c r="A658" t="s">
         <v>758</v>
       </c>
@@ -19755,7 +19760,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7">
       <c r="A659" t="s">
         <v>406</v>
       </c>
@@ -19778,7 +19783,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7">
       <c r="A660" t="s">
         <v>249</v>
       </c>
@@ -19801,7 +19806,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7">
       <c r="A661" t="s">
         <v>955</v>
       </c>
@@ -19824,7 +19829,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7">
       <c r="A662" t="s">
         <v>999</v>
       </c>
@@ -19847,9 +19852,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7">
       <c r="A663" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B663" t="s">
         <v>38</v>
@@ -19858,7 +19863,7 @@
         <v>14</v>
       </c>
       <c r="D663" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E663">
         <v>84</v>
@@ -19867,9 +19872,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7">
       <c r="A664" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B664" t="s">
         <v>38</v>
@@ -19887,9 +19892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7">
       <c r="A665" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B665" t="s">
         <v>38</v>
@@ -19907,9 +19912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7">
       <c r="A666" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B666" t="s">
         <v>38</v>
@@ -19927,7 +19932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7">
       <c r="A667" t="s">
         <v>529</v>
       </c>
@@ -19950,7 +19955,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7">
       <c r="A668" t="s">
         <v>340</v>
       </c>
@@ -19973,7 +19978,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7">
       <c r="A669" t="s">
         <v>582</v>
       </c>
@@ -19996,7 +20001,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7">
       <c r="A670" t="s">
         <v>203</v>
       </c>
@@ -20019,7 +20024,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7">
       <c r="A671" t="s">
         <v>677</v>
       </c>
@@ -20042,7 +20047,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7">
       <c r="A672" t="s">
         <v>389</v>
       </c>
@@ -20065,7 +20070,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7">
       <c r="A673" t="s">
         <v>402</v>
       </c>
@@ -20088,7 +20093,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7">
       <c r="A674" t="s">
         <v>254</v>
       </c>
@@ -20111,7 +20116,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7">
       <c r="A675" t="s">
         <v>981</v>
       </c>
@@ -20134,7 +20139,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7">
       <c r="A676" t="s">
         <v>626</v>
       </c>
@@ -20157,12 +20162,12 @@
         <v>627</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7">
       <c r="A677" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B677" t="s">
         <v>1463</v>
-      </c>
-      <c r="B677" t="s">
-        <v>1464</v>
       </c>
       <c r="C677" t="s">
         <v>11</v>
@@ -20182,5 +20187,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>